--- a/IMKL2.x/000. release candidate-intern/verw_review IMKL-PMKL-BMKL_Totaal.xlsx
+++ b/IMKL2.x/000. release candidate-intern/verw_review IMKL-PMKL-BMKL_Totaal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\A Informatiemodellen\IMKL\2020\Consultatie-nationaal\verwerking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\000. release candidate-intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB5B75C-884B-433C-BF76-C983CC5042FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9B4428-87E7-4281-BFD2-52FF6A92AF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{109A661E-75C0-44CB-99D6-36A1BC074F7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{109A661E-75C0-44CB-99D6-36A1BC074F7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Consultatie IMKL" sheetId="1" r:id="rId1"/>
@@ -1517,13 +1517,6 @@
 BGT-achtergrondkaart in vectorformaat.</t>
   </si>
   <si>
-    <t>aangepast:
-Def was: Geometrie die aangeeft op welk element een eis voorzorgsmaatregel van toepassing is en of een strook aangeeft waar de maatregel van toepassing is.
-Def wordt: Geometrie die aangeeft op welk element een eis voorzorgsmaatregel van toepassing is.
-Toelichting was: Als de geometrie alleen dient om het leidingelement aan te duiden is er een standaard  strook van 1 meter aan weerszijden van de kabel of leiding of leidingelement. Indien nodig kan voor meer zichtbaarheid een bredere strook worden aangegeven. Als het een werkelijke strook betreft is de afstand afhankelijk van de specifieke situatie.
-Toelichting wordt: 'geen toelichting nodig'</t>
-  </si>
-  <si>
     <t>accepted: Ze komen in de vertaallijst</t>
   </si>
   <si>
@@ -1662,6 +1655,99 @@
   <si>
     <t>accepted:
 is toegevoegd bij hoofdstuk visualisatie</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aangepast:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Def was:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Geometrie die aangeeft op welk element een eis voorzorgsmaatregel van toepassing is en of een strook aangeeft waar de maatregel van toepassing is.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Def wordt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Geometrie die aangeeft op welk element een eis voorzorgsmaatregel van toepassing is.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Toelichting was:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Als de geometrie alleen dient om het leidingelement aan te duiden is er een standaard  strook van 1 meter aan weerszijden van de kabel of leiding of leidingelement. Indien nodig kan voor meer zichtbaarheid een bredere strook worden aangegeven. Als het een werkelijke strook betreft is de afstand afhankelijk van de specifieke situatie.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Toelichting wordt: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'geen toelichting nodig'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1909,7 +1995,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2092,6 +2178,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2465,10 +2554,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78334D5-45A7-417C-8EA7-2024F3CC9308}">
   <dimension ref="A1:FN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2966,7 +3055,7 @@
         <v>50</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>45</v>
@@ -3080,7 +3169,7 @@
       </c>
       <c r="J15" s="49"/>
       <c r="K15" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L15" s="47" t="s">
         <v>45</v>
@@ -3158,7 +3247,7 @@
         <v>160</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
@@ -3200,10 +3289,10 @@
         <v>59</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="112.5" x14ac:dyDescent="0.25">
@@ -3271,7 +3360,7 @@
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L20" s="47" t="s">
         <v>45</v>
@@ -3313,7 +3402,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="64" t="s">
         <v>121</v>
       </c>
       <c r="L21" s="47" t="s">
@@ -3400,7 +3489,7 @@
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L23" s="47" t="s">
         <v>45</v>
@@ -3457,8 +3546,8 @@
       <c r="J25" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>213</v>
+      <c r="K25" s="64" t="s">
+        <v>212</v>
       </c>
       <c r="L25" s="47" t="s">
         <v>124</v>
@@ -3491,7 +3580,7 @@
         <v>126</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="168.75" x14ac:dyDescent="0.25">
@@ -3946,7 +4035,7 @@
       </c>
       <c r="J42" s="49"/>
       <c r="K42" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L42" s="47" t="s">
         <v>45</v>
@@ -5478,7 +5567,7 @@
       </c>
       <c r="J52" s="30"/>
       <c r="K52" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L52" s="27"/>
       <c r="M52" s="44"/>
@@ -5848,7 +5937,7 @@
       </c>
       <c r="J54" s="30"/>
       <c r="K54" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L54" s="48" t="s">
         <v>45</v>
@@ -6224,7 +6313,7 @@
         <v>194</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L56" s="48" t="s">
         <v>45</v>
@@ -6412,7 +6501,7 @@
         <v>141</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L57" s="48" t="s">
         <v>45</v>
@@ -6600,7 +6689,7 @@
         <v>144</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L58" s="48" t="s">
         <v>45</v>
@@ -6784,7 +6873,7 @@
       </c>
       <c r="J59" s="22"/>
       <c r="K59" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" s="55"/>
@@ -6966,7 +7055,7 @@
       </c>
       <c r="J60" s="34"/>
       <c r="K60" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L60" s="48" t="s">
         <v>45</v>
@@ -7152,7 +7241,7 @@
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L61" s="48" t="s">
         <v>45</v>
@@ -7338,7 +7427,7 @@
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L62" s="19"/>
       <c r="M62" s="55"/>
@@ -7527,7 +7616,7 @@
         <v>122</v>
       </c>
       <c r="L63" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M63" s="55"/>
       <c r="N63" s="55"/>
@@ -7712,10 +7801,10 @@
         <v>119</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L64" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
@@ -7896,7 +7985,7 @@
         <v>167</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L65" s="48" t="s">
         <v>45</v>
@@ -8076,7 +8165,7 @@
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L66" s="48" t="s">
         <v>45</v>
@@ -8260,7 +8349,7 @@
         <v>151</v>
       </c>
       <c r="K67" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L67" s="47" t="s">
         <v>45</v>
@@ -8444,7 +8533,7 @@
         <v>153</v>
       </c>
       <c r="K68" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L68" s="48" t="s">
         <v>45</v>
@@ -8628,7 +8717,7 @@
         <v>155</v>
       </c>
       <c r="K69" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L69" s="48" t="s">
         <v>45</v>
@@ -8812,7 +8901,7 @@
         <v>157</v>
       </c>
       <c r="K70" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L70" s="48" t="s">
         <v>45</v>
@@ -8996,7 +9085,7 @@
         <v>159</v>
       </c>
       <c r="K71" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L71" s="48" t="s">
         <v>45</v>
@@ -9168,11 +9257,11 @@
       <c r="G72" s="58"/>
       <c r="H72" s="59"/>
       <c r="I72" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J72" s="58"/>
       <c r="K72" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L72" s="58" t="s">
         <v>45</v>
@@ -9344,11 +9433,11 @@
       <c r="G73" s="58"/>
       <c r="H73" s="59"/>
       <c r="I73" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J73" s="58"/>
       <c r="K73" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L73" s="58" t="s">
         <v>45</v>
@@ -9520,13 +9609,13 @@
       <c r="G74" s="58"/>
       <c r="H74" s="59"/>
       <c r="I74" s="58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J74" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="K74" s="60" t="s">
         <v>228</v>
-      </c>
-      <c r="K74" s="60" t="s">
-        <v>229</v>
       </c>
       <c r="L74" s="58" t="s">
         <v>45</v>
